--- a/biology/Médecine/Sebastian_Kneipp/Sebastian_Kneipp.xlsx
+++ b/biology/Médecine/Sebastian_Kneipp/Sebastian_Kneipp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sébastien Kneipp, né le 17 mai 1821 à Stephansried (Royaume de Bavière) et mort le 17 juin 1897 à Bad Wörishofen (Empire allemand), est un prêtre catholique bavarois qui est à l'origine de thérapies naturelles portant son nom (en allemand Kneipp-Kur).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît le 17 mai 1821 en Souabe à Stephansried (qui fait aujourd'hui partie d’Ottobeuren). Il est le fils du tisserand Xaver Kneipp et de son épouse Rosina et il avait deux sœurs et deux demi-sœurs. La pauvreté de sa famille l’obligea à onze ans à travailler avec son père au métier à tisser ou en tant que gardien du troupeau municipal. De 1827 à 1833, il fréquenta l'école communale de Stephansried et de 1833 à 1839 l'école du dimanche et jours fériés d’Ottobeuren. L'incendie de la maison de ses parents et la perte des 70 florins qu’il avait économisés le contraignirent à quitter son village natal et à trouver un emploi de valet de ferme à Grönenbach. Un parent éloigné, l'aumônier Matthias Merkle, s'occupa de lui, lui enseigna le latin et le prépara ainsi au Gymnasium. À Grönenbach, il rencontra également le pasteur du lieu, protestant réformé, Christoph Ludwig Köberlin qui était botaniste et lui fit découvrir la phytothérapie.
 En 1844, il fut admis au collège royal de Dillingen et, en 1848, il commença à étudier la théologie au Lycée de Dillingen (de 1923 à 1971, Université de philosophie et de théologie de Dillingen).
@@ -550,7 +564,9 @@
           <t>Méthode Kneipp</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La méthode Kneipp est fondée sur cinq piliers :
 l'hydrothérapie (soigner par l'eau) ; la force curative de l'eau est employée de diverses manières dont les plus appliquées sont les jets d'eau froide (Wassergüsse) et la marche, à la façon de la cigogne, dans un bassin d'eau froide (Wassertreten), toujours après échauffement ; Cette thérapie peut se décliner en plusieurs méthodes conjointes ou indépendantes :
@@ -591,11 +607,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Comment il faut vivre : avertissements et conseils s'adressant aux malades et aux gens bien portants pour vivre d'après une hygiène simple et raisonnable et une thérapeutique conforme à la nature, 1891 [1]
-Ma cure d'eau pour la guérison des maladies et la conservation de la santé, 1897 [2]
-Mon testament : conseils aux malades et aux gens bien portants, 1895 [3]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Comment il faut vivre : avertissements et conseils s'adressant aux malades et aux gens bien portants pour vivre d'après une hygiène simple et raisonnable et une thérapeutique conforme à la nature, 1891 
+Ma cure d'eau pour la guérison des maladies et la conservation de la santé, 1897 
+Mon testament : conseils aux malades et aux gens bien portants, 1895 
 Quelques conseils médicaux contenus dans mon almanach pour l'an de grâce 1892, 1895
 Soins à donner aux enfants dans l'état de santé et dans l'état de maladie ou Conseils sur l'hygiène et la médecine de l'enfance, 1892</t>
         </is>
